--- a/Pruebas/Data1.xlsx
+++ b/Pruebas/Data1.xlsx
@@ -465,19 +465,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
-        <v>10000</v>
+        <v>6000</v>
       </c>
       <c r="D2" t="n">
-        <v>156.3089249134064</v>
+        <v>75.11378765106201</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4493764428770961</v>
+        <v>0.1398425856252264</v>
       </c>
       <c r="F2" t="n">
-        <v>283.3191670633179</v>
+        <v>176.3328440444608</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Data1.xlsx
+++ b/Pruebas/Data1.xlsx
@@ -471,13 +471,13 @@
         <v>6000</v>
       </c>
       <c r="D2" t="n">
-        <v>75.11378765106201</v>
+        <v>48.95282745361328</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1398425856252264</v>
+        <v>0.01182836952252633</v>
       </c>
       <c r="F2" t="n">
-        <v>176.3328440444608</v>
+        <v>179.1994545109668</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Data1.xlsx
+++ b/Pruebas/Data1.xlsx
@@ -471,13 +471,13 @@
         <v>6000</v>
       </c>
       <c r="D2" t="n">
-        <v>48.95282745361328</v>
+        <v>25.2936680316925</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01182836952252633</v>
+        <v>0.02046354866400239</v>
       </c>
       <c r="F2" t="n">
-        <v>179.1994545109668</v>
+        <v>166.7256519190483</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Data1.xlsx
+++ b/Pruebas/Data1.xlsx
@@ -471,13 +471,13 @@
         <v>6000</v>
       </c>
       <c r="D2" t="n">
-        <v>25.2936680316925</v>
+        <v>147.3043036460876</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02046354866400239</v>
+        <v>0.009016281527712389</v>
       </c>
       <c r="F2" t="n">
-        <v>166.7256519190483</v>
+        <v>167.9988496044625</v>
       </c>
     </row>
   </sheetData>
